--- a/data_year/zb/人民生活/居民人均可支配收入基尼系数.xlsx
+++ b/data_year/zb/人民生活/居民人均可支配收入基尼系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,181 +443,121 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.479</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.473</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.485</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.487</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.484</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.491</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.49</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.481</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.477</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.474</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.473</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.469</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.462</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.465</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.467</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.468</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.465</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
     </row>
   </sheetData>
